--- a/Stevens_Spring_2022/E-355-D/Labs/Lab6_355A_Alex_Gaskins.xlsx
+++ b/Stevens_Spring_2022/E-355-D/Labs/Lab6_355A_Alex_Gaskins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/E-355-D/Labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ECB9DE-2FC2-8C4D-B9DF-1166665A7FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24F7239-CD20-3841-BFFA-70918337F1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab 6" sheetId="17" r:id="rId1"/>
@@ -669,50 +669,50 @@
     <xf numFmtId="44" fontId="9" fillId="2" borderId="7" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1200,7 +1200,7 @@
   </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="150" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C47" sqref="C47:J48"/>
     </sheetView>
   </sheetViews>
@@ -1235,44 +1235,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1425,7 +1425,7 @@
         <v>0.35</v>
       </c>
       <c r="I9" s="28">
-        <f>-E9*H9</f>
+        <f t="shared" ref="I9:I15" si="0">-E9*H9</f>
         <v>-318500</v>
       </c>
       <c r="J9" s="28">
@@ -1436,7 +1436,7 @@
         <v>-157500</v>
       </c>
       <c r="L9" s="28">
-        <f>-E9*0.16</f>
+        <f t="shared" ref="L9:L15" si="1">-E9*0.16</f>
         <v>-145600</v>
       </c>
       <c r="M9" s="28">
@@ -1444,11 +1444,11 @@
         <v>-621600</v>
       </c>
       <c r="N9" s="28">
-        <f>-E9*0.28</f>
+        <f t="shared" ref="N9:N15" si="2">-E9*0.28</f>
         <v>-254800.00000000003</v>
       </c>
       <c r="O9" s="27">
-        <f>-E9*0.07</f>
+        <f t="shared" ref="O9:O15" si="3">-E9*0.07</f>
         <v>-63700.000000000007</v>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
         <v>244.4</v>
       </c>
       <c r="E10" s="28">
-        <f t="shared" ref="E10:E15" si="0">B10*D10</f>
+        <f t="shared" ref="E10:E15" si="4">B10*D10</f>
         <v>977600</v>
       </c>
       <c r="F10" s="47"/>
@@ -1480,30 +1480,30 @@
         <v>0.32</v>
       </c>
       <c r="I10" s="28">
-        <f>-E10*H10</f>
+        <f t="shared" si="0"/>
         <v>-312832</v>
       </c>
       <c r="J10" s="28">
         <v>-12.5</v>
       </c>
       <c r="K10" s="28">
-        <f t="shared" ref="K10:K15" si="1">G10*J10</f>
+        <f t="shared" ref="K10:K15" si="5">G10*J10</f>
         <v>-150000</v>
       </c>
       <c r="L10" s="28">
-        <f>-E10*0.16</f>
+        <f t="shared" si="1"/>
         <v>-156416</v>
       </c>
       <c r="M10" s="28">
-        <f t="shared" ref="M10:M15" si="2">I10+K10+L10</f>
+        <f t="shared" ref="M10:M15" si="6">I10+K10+L10</f>
         <v>-619248</v>
       </c>
       <c r="N10" s="28">
-        <f>-E10*0.28</f>
+        <f t="shared" si="2"/>
         <v>-273728</v>
       </c>
       <c r="O10" s="27">
-        <f>-E10*0.07</f>
+        <f t="shared" si="3"/>
         <v>-68432</v>
       </c>
     </row>
@@ -1515,50 +1515,50 @@
         <v>4000</v>
       </c>
       <c r="C11" s="46">
-        <f t="shared" ref="C11:C15" si="3">(D10-D11)/100</f>
+        <f t="shared" ref="C11:C15" si="7">(D10-D11)/100</f>
         <v>0.14663999999999988</v>
       </c>
       <c r="D11" s="28">
-        <f t="shared" ref="D11:D15" si="4">D10-(D10*0.06)</f>
+        <f t="shared" ref="D11:D15" si="8">D10-(D10*0.06)</f>
         <v>229.73600000000002</v>
       </c>
       <c r="E11" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>918944.00000000012</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="52">
-        <f t="shared" ref="G11:G15" si="5">B11*3</f>
+        <f t="shared" ref="G11:G15" si="9">B11*3</f>
         <v>12000</v>
       </c>
       <c r="H11" s="48">
         <v>0.32</v>
       </c>
       <c r="I11" s="28">
-        <f>-E11*H11</f>
+        <f t="shared" si="0"/>
         <v>-294062.08000000002</v>
       </c>
       <c r="J11" s="28">
         <v>-12.5</v>
       </c>
       <c r="K11" s="28">
+        <f t="shared" si="5"/>
+        <v>-150000</v>
+      </c>
+      <c r="L11" s="28">
         <f t="shared" si="1"/>
-        <v>-150000</v>
-      </c>
-      <c r="L11" s="28">
-        <f>-E11*0.16</f>
         <v>-147031.04000000001</v>
       </c>
       <c r="M11" s="28">
+        <f t="shared" si="6"/>
+        <v>-591093.12</v>
+      </c>
+      <c r="N11" s="28">
         <f t="shared" si="2"/>
-        <v>-591093.12</v>
-      </c>
-      <c r="N11" s="28">
-        <f>-E11*0.28</f>
         <v>-257304.32000000007</v>
       </c>
       <c r="O11" s="27">
-        <f>-E11*0.07</f>
+        <f t="shared" si="3"/>
         <v>-64326.080000000016</v>
       </c>
     </row>
@@ -1570,50 +1570,50 @@
         <v>5000</v>
       </c>
       <c r="C12" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.13784160000000015</v>
       </c>
       <c r="D12" s="28">
+        <f t="shared" si="8"/>
+        <v>215.95184</v>
+      </c>
+      <c r="E12" s="28">
         <f t="shared" si="4"/>
-        <v>215.95184</v>
-      </c>
-      <c r="E12" s="28">
-        <f t="shared" si="0"/>
         <v>1079759.2</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15000</v>
       </c>
       <c r="H12" s="48">
         <v>0.3</v>
       </c>
       <c r="I12" s="28">
-        <f>-E12*H12</f>
+        <f t="shared" si="0"/>
         <v>-323927.75999999995</v>
       </c>
       <c r="J12" s="28">
         <v>-10</v>
       </c>
       <c r="K12" s="28">
+        <f t="shared" si="5"/>
+        <v>-150000</v>
+      </c>
+      <c r="L12" s="28">
         <f t="shared" si="1"/>
-        <v>-150000</v>
-      </c>
-      <c r="L12" s="28">
-        <f>-E12*0.16</f>
         <v>-172761.47200000001</v>
       </c>
       <c r="M12" s="28">
+        <f t="shared" si="6"/>
+        <v>-646689.23199999996</v>
+      </c>
+      <c r="N12" s="28">
         <f t="shared" si="2"/>
-        <v>-646689.23199999996</v>
-      </c>
-      <c r="N12" s="28">
-        <f>-E12*0.28</f>
         <v>-302332.576</v>
       </c>
       <c r="O12" s="27">
-        <f>-E12*0.07</f>
+        <f t="shared" si="3"/>
         <v>-75583.144</v>
       </c>
     </row>
@@ -1625,50 +1625,50 @@
         <v>5000</v>
       </c>
       <c r="C13" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.12957110400000005</v>
       </c>
       <c r="D13" s="28">
+        <f t="shared" si="8"/>
+        <v>202.9947296</v>
+      </c>
+      <c r="E13" s="28">
         <f t="shared" si="4"/>
-        <v>202.9947296</v>
-      </c>
-      <c r="E13" s="28">
-        <f t="shared" si="0"/>
         <v>1014973.648</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15000</v>
       </c>
       <c r="H13" s="48">
         <v>0.3</v>
       </c>
       <c r="I13" s="28">
-        <f>-E13*H13</f>
+        <f t="shared" si="0"/>
         <v>-304492.0944</v>
       </c>
       <c r="J13" s="28">
         <v>-10</v>
       </c>
       <c r="K13" s="28">
+        <f t="shared" si="5"/>
+        <v>-150000</v>
+      </c>
+      <c r="L13" s="28">
         <f t="shared" si="1"/>
-        <v>-150000</v>
-      </c>
-      <c r="L13" s="28">
-        <f>-E13*0.16</f>
         <v>-162395.78368000002</v>
       </c>
       <c r="M13" s="28">
+        <f t="shared" si="6"/>
+        <v>-616887.87808000005</v>
+      </c>
+      <c r="N13" s="28">
         <f t="shared" si="2"/>
-        <v>-616887.87808000005</v>
-      </c>
-      <c r="N13" s="28">
-        <f>-E13*0.28</f>
         <v>-284192.62144000002</v>
       </c>
       <c r="O13" s="27">
-        <f>-E13*0.07</f>
+        <f t="shared" si="3"/>
         <v>-71048.155360000004</v>
       </c>
     </row>
@@ -1680,50 +1680,50 @@
         <v>6000</v>
       </c>
       <c r="C14" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1217968377599999</v>
       </c>
       <c r="D14" s="28">
+        <f t="shared" si="8"/>
+        <v>190.81504582400001</v>
+      </c>
+      <c r="E14" s="28">
         <f t="shared" si="4"/>
-        <v>190.81504582400001</v>
-      </c>
-      <c r="E14" s="28">
-        <f t="shared" si="0"/>
         <v>1144890.2749439999</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18000</v>
       </c>
       <c r="H14" s="48">
         <v>0.3</v>
       </c>
       <c r="I14" s="28">
-        <f>-E14*H14</f>
+        <f t="shared" si="0"/>
         <v>-343467.08248319995</v>
       </c>
       <c r="J14" s="28">
         <v>-8.5</v>
       </c>
       <c r="K14" s="28">
+        <f t="shared" si="5"/>
+        <v>-153000</v>
+      </c>
+      <c r="L14" s="28">
         <f t="shared" si="1"/>
-        <v>-153000</v>
-      </c>
-      <c r="L14" s="28">
-        <f>-E14*0.16</f>
         <v>-183182.44399104</v>
       </c>
       <c r="M14" s="28">
+        <f t="shared" si="6"/>
+        <v>-679649.52647424</v>
+      </c>
+      <c r="N14" s="28">
         <f t="shared" si="2"/>
-        <v>-679649.52647424</v>
-      </c>
-      <c r="N14" s="28">
-        <f>-E14*0.28</f>
         <v>-320569.27698432002</v>
       </c>
       <c r="O14" s="27">
-        <f>-E14*0.07</f>
+        <f t="shared" si="3"/>
         <v>-80142.319246080006</v>
       </c>
     </row>
@@ -1735,50 +1735,50 @@
         <v>6000</v>
       </c>
       <c r="C15" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1144890274944001</v>
       </c>
       <c r="D15" s="28">
+        <f t="shared" si="8"/>
+        <v>179.36614307456</v>
+      </c>
+      <c r="E15" s="28">
         <f t="shared" si="4"/>
-        <v>179.36614307456</v>
-      </c>
-      <c r="E15" s="28">
-        <f t="shared" si="0"/>
         <v>1076196.8584473601</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18000</v>
       </c>
       <c r="H15" s="48">
         <v>0.3</v>
       </c>
       <c r="I15" s="28">
-        <f>-E15*H15</f>
+        <f t="shared" si="0"/>
         <v>-322859.057534208</v>
       </c>
       <c r="J15" s="28">
         <v>-8.5</v>
       </c>
       <c r="K15" s="28">
+        <f t="shared" si="5"/>
+        <v>-153000</v>
+      </c>
+      <c r="L15" s="28">
         <f t="shared" si="1"/>
-        <v>-153000</v>
-      </c>
-      <c r="L15" s="28">
-        <f>-E15*0.16</f>
         <v>-172191.49735157762</v>
       </c>
       <c r="M15" s="28">
+        <f t="shared" si="6"/>
+        <v>-648050.55488578556</v>
+      </c>
+      <c r="N15" s="28">
         <f t="shared" si="2"/>
-        <v>-648050.55488578556</v>
-      </c>
-      <c r="N15" s="28">
-        <f>-E15*0.28</f>
         <v>-301335.12036526087</v>
       </c>
       <c r="O15" s="27">
-        <f>-E15*0.07</f>
+        <f t="shared" si="3"/>
         <v>-75333.780091315217</v>
       </c>
     </row>
@@ -1817,13 +1817,13 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="15"/>
@@ -1836,11 +1836,11 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2001,11 +2001,11 @@
         <v>0.25</v>
       </c>
       <c r="I24" s="28">
-        <f>-E24*H24</f>
+        <f t="shared" ref="I24:I30" si="10">-E24*H24</f>
         <v>-227500</v>
       </c>
       <c r="J24" s="28">
-        <f>-D24*0.08</f>
+        <f t="shared" ref="J24:J30" si="11">-D24*0.08</f>
         <v>-20.8</v>
       </c>
       <c r="K24" s="28">
@@ -2013,7 +2013,7 @@
         <v>-218400</v>
       </c>
       <c r="L24" s="28">
-        <f>-E24*0.22</f>
+        <f t="shared" ref="L24:L30" si="12">-E24*0.22</f>
         <v>-200200</v>
       </c>
       <c r="M24" s="28">
@@ -2021,7 +2021,7 @@
         <v>-646100</v>
       </c>
       <c r="N24" s="28">
-        <f>-E24*0.18</f>
+        <f t="shared" ref="N24:N30" si="13">-E24*0.18</f>
         <v>-163800</v>
       </c>
       <c r="O24" s="2"/>
@@ -2042,7 +2042,7 @@
         <v>244.4</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" ref="E25:E30" si="6">B25*D25</f>
+        <f t="shared" ref="E25:E30" si="14">B25*D25</f>
         <v>977600</v>
       </c>
       <c r="F25" s="47"/>
@@ -2054,27 +2054,27 @@
         <v>0.25</v>
       </c>
       <c r="I25" s="28">
-        <f>-E25*H25</f>
+        <f t="shared" si="10"/>
         <v>-244400</v>
       </c>
       <c r="J25" s="28">
-        <f>-D25*0.08</f>
+        <f t="shared" si="11"/>
         <v>-19.552</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" ref="K25:K30" si="7">G25*J25</f>
+        <f t="shared" ref="K25:K30" si="15">G25*J25</f>
         <v>-234624</v>
       </c>
       <c r="L25" s="28">
-        <f>-E25*0.22</f>
+        <f t="shared" si="12"/>
         <v>-215072</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" ref="M25:M30" si="8">I25+K25+L25</f>
+        <f t="shared" ref="M25:M30" si="16">I25+K25+L25</f>
         <v>-694096</v>
       </c>
       <c r="N25" s="28">
-        <f>-E25*0.18</f>
+        <f t="shared" si="13"/>
         <v>-175968</v>
       </c>
       <c r="O25" s="2"/>
@@ -2087,47 +2087,47 @@
         <v>4000</v>
       </c>
       <c r="C26" s="46">
-        <f t="shared" ref="C26:C30" si="9">(D25-D26)/100</f>
+        <f t="shared" ref="C26:C30" si="17">(D25-D26)/100</f>
         <v>0.14663999999999988</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" ref="D26:D30" si="10">D25-(D25*0.06)</f>
+        <f t="shared" ref="D26:D30" si="18">D25-(D25*0.06)</f>
         <v>229.73600000000002</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>918944.00000000012</v>
       </c>
       <c r="F26" s="47"/>
       <c r="G26" s="52">
-        <f t="shared" ref="G26:G30" si="11">B26*3</f>
+        <f t="shared" ref="G26:G30" si="19">B26*3</f>
         <v>12000</v>
       </c>
       <c r="H26" s="50">
         <v>0.25</v>
       </c>
       <c r="I26" s="28">
-        <f>-E26*H26</f>
+        <f t="shared" si="10"/>
         <v>-229736.00000000003</v>
       </c>
       <c r="J26" s="28">
-        <f>-D26*0.08</f>
+        <f t="shared" si="11"/>
         <v>-18.378880000000002</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-220546.56000000003</v>
       </c>
       <c r="L26" s="28">
-        <f>-E26*0.22</f>
+        <f t="shared" si="12"/>
         <v>-202167.68000000002</v>
       </c>
       <c r="M26" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-652450.24000000011</v>
       </c>
       <c r="N26" s="28">
-        <f>-E26*0.18</f>
+        <f t="shared" si="13"/>
         <v>-165409.92000000001</v>
       </c>
       <c r="O26" s="2"/>
@@ -2140,47 +2140,47 @@
         <v>5000</v>
       </c>
       <c r="C27" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.13784160000000015</v>
       </c>
       <c r="D27" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>215.95184</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1079759.2</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>15000</v>
       </c>
       <c r="H27" s="50">
         <v>0.25</v>
       </c>
       <c r="I27" s="28">
-        <f>-E27*H27</f>
+        <f t="shared" si="10"/>
         <v>-269939.8</v>
       </c>
       <c r="J27" s="28">
-        <f>-D27*0.08</f>
+        <f t="shared" si="11"/>
         <v>-17.2761472</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-259142.20800000001</v>
       </c>
       <c r="L27" s="28">
-        <f>-E27*0.22</f>
+        <f t="shared" si="12"/>
         <v>-237547.024</v>
       </c>
       <c r="M27" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-766629.03200000001</v>
       </c>
       <c r="N27" s="28">
-        <f>-E27*0.18</f>
+        <f t="shared" si="13"/>
         <v>-194356.65599999999</v>
       </c>
       <c r="O27" s="2"/>
@@ -2193,47 +2193,47 @@
         <v>5000</v>
       </c>
       <c r="C28" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12957110400000005</v>
       </c>
       <c r="D28" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>202.9947296</v>
       </c>
       <c r="E28" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1014973.648</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>15000</v>
       </c>
       <c r="H28" s="50">
         <v>0.25</v>
       </c>
       <c r="I28" s="28">
-        <f>-E28*H28</f>
+        <f t="shared" si="10"/>
         <v>-253743.41200000001</v>
       </c>
       <c r="J28" s="28">
-        <f>-D28*0.08</f>
+        <f t="shared" si="11"/>
         <v>-16.239578368</v>
       </c>
       <c r="K28" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-243593.67551999999</v>
       </c>
       <c r="L28" s="28">
-        <f>-E28*0.22</f>
+        <f t="shared" si="12"/>
         <v>-223294.20256000001</v>
       </c>
       <c r="M28" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-720631.29007999995</v>
       </c>
       <c r="N28" s="28">
-        <f>-E28*0.18</f>
+        <f t="shared" si="13"/>
         <v>-182695.25664000001</v>
       </c>
       <c r="O28" s="2"/>
@@ -2246,47 +2246,47 @@
         <v>6000</v>
       </c>
       <c r="C29" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1217968377599999</v>
       </c>
       <c r="D29" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>190.81504582400001</v>
       </c>
       <c r="E29" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1144890.2749439999</v>
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>18000</v>
       </c>
       <c r="H29" s="50">
         <v>0.25</v>
       </c>
       <c r="I29" s="28">
-        <f>-E29*H29</f>
+        <f t="shared" si="10"/>
         <v>-286222.56873599999</v>
       </c>
       <c r="J29" s="28">
-        <f>-D29*0.08</f>
+        <f t="shared" si="11"/>
         <v>-15.265203665920001</v>
       </c>
       <c r="K29" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-274773.66598656005</v>
       </c>
       <c r="L29" s="28">
-        <f>-E29*0.22</f>
+        <f t="shared" si="12"/>
         <v>-251875.86048767998</v>
       </c>
       <c r="M29" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-812872.09521023999</v>
       </c>
       <c r="N29" s="28">
-        <f>-E29*0.18</f>
+        <f t="shared" si="13"/>
         <v>-206080.24948991998</v>
       </c>
       <c r="O29" s="2"/>
@@ -2299,47 +2299,47 @@
         <v>6000</v>
       </c>
       <c r="C30" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1144890274944001</v>
       </c>
       <c r="D30" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>179.36614307456</v>
       </c>
       <c r="E30" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1076196.8584473601</v>
       </c>
       <c r="F30" s="47"/>
       <c r="G30" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>18000</v>
       </c>
       <c r="H30" s="50">
         <v>0.25</v>
       </c>
       <c r="I30" s="28">
-        <f>-E30*H30</f>
+        <f t="shared" si="10"/>
         <v>-269049.21461184003</v>
       </c>
       <c r="J30" s="28">
-        <f>-D30*0.08</f>
+        <f t="shared" si="11"/>
         <v>-14.3492914459648</v>
       </c>
       <c r="K30" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-258287.2460273664</v>
       </c>
       <c r="L30" s="28">
-        <f>-E30*0.22</f>
+        <f t="shared" si="12"/>
         <v>-236763.30885841922</v>
       </c>
       <c r="M30" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-764099.76949762565</v>
       </c>
       <c r="N30" s="28">
-        <f>-E30*0.18</f>
+        <f t="shared" si="13"/>
         <v>-193715.43452052481</v>
       </c>
       <c r="O30" s="2"/>
@@ -2379,25 +2379,25 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2421,10 +2421,10 @@
       <c r="B35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="30" t="s">
@@ -2437,10 +2437,10 @@
       <c r="J35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="58" t="s">
+      <c r="K35" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="58" t="s">
+      <c r="L35" s="69" t="s">
         <v>41</v>
       </c>
       <c r="M35" s="30" t="s">
@@ -2454,8 +2454,8 @@
       <c r="B36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="32" t="s">
         <v>42</v>
       </c>
@@ -2466,8 +2466,8 @@
       <c r="J36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
       <c r="M36" s="32" t="s">
         <v>42</v>
       </c>
@@ -2552,15 +2552,15 @@
       </c>
       <c r="B39" s="54"/>
       <c r="C39" s="55">
-        <f t="shared" ref="C39:C44" si="12">E10</f>
+        <f t="shared" ref="C39:C44" si="20">E10</f>
         <v>977600</v>
       </c>
       <c r="D39" s="54">
-        <f t="shared" ref="D39:D44" si="13">M10+N10+O10</f>
+        <f t="shared" ref="D39:D44" si="21">M10+N10+O10</f>
         <v>-961408</v>
       </c>
       <c r="E39" s="55">
-        <f t="shared" ref="E39:E44" si="14">C39+D39</f>
+        <f t="shared" ref="E39:E44" si="22">C39+D39</f>
         <v>16192</v>
       </c>
       <c r="F39" s="20" t="s">
@@ -2575,15 +2575,15 @@
       </c>
       <c r="J39" s="54"/>
       <c r="K39" s="55">
-        <f t="shared" ref="K39:K44" si="15">E25</f>
+        <f t="shared" ref="K39:K44" si="23">E25</f>
         <v>977600</v>
       </c>
       <c r="L39" s="54">
-        <f t="shared" ref="L39:L44" si="16">M25+N25</f>
+        <f t="shared" ref="L39:L44" si="24">M25+N25</f>
         <v>-870064</v>
       </c>
       <c r="M39" s="54">
-        <f t="shared" ref="M39:M44" si="17">K39+L39</f>
+        <f t="shared" ref="M39:M44" si="25">K39+L39</f>
         <v>107536</v>
       </c>
       <c r="N39" s="20" t="s">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>918944.00000000012</v>
       </c>
       <c r="D40" s="54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-912723.52</v>
       </c>
       <c r="E40" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>6220.4800000000978</v>
       </c>
       <c r="F40" s="20" t="s">
@@ -2623,15 +2623,15 @@
       </c>
       <c r="J40" s="54"/>
       <c r="K40" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>918944.00000000012</v>
       </c>
       <c r="L40" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-817860.16000000015</v>
       </c>
       <c r="M40" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>101083.83999999997</v>
       </c>
       <c r="N40" s="20" t="s">
@@ -2648,15 +2648,15 @@
       </c>
       <c r="B41" s="54"/>
       <c r="C41" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1079759.2</v>
       </c>
       <c r="D41" s="54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-1024604.9519999999</v>
       </c>
       <c r="E41" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>55154.248000000021</v>
       </c>
       <c r="F41" s="20" t="s">
@@ -2672,15 +2672,15 @@
       </c>
       <c r="J41" s="54"/>
       <c r="K41" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1079759.2</v>
       </c>
       <c r="L41" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-960985.68799999997</v>
       </c>
       <c r="M41" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>118773.51199999999</v>
       </c>
       <c r="N41" s="20" t="s">
@@ -2697,15 +2697,15 @@
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1014973.648</v>
       </c>
       <c r="D42" s="54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-972128.65488000005</v>
       </c>
       <c r="E42" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>42844.993119999999</v>
       </c>
       <c r="F42" s="3"/>
@@ -2716,15 +2716,15 @@
       </c>
       <c r="J42" s="54"/>
       <c r="K42" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1014973.648</v>
       </c>
       <c r="L42" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-903326.54671999998</v>
       </c>
       <c r="M42" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>111647.10128000006</v>
       </c>
       <c r="N42" s="18"/>
@@ -2736,15 +2736,15 @@
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1144890.2749439999</v>
       </c>
       <c r="D43" s="54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-1080361.12270464</v>
       </c>
       <c r="E43" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>64529.152239359915</v>
       </c>
       <c r="F43" s="3"/>
@@ -2755,15 +2755,15 @@
       </c>
       <c r="J43" s="54"/>
       <c r="K43" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1144890.2749439999</v>
       </c>
       <c r="L43" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-1018952.34470016</v>
       </c>
       <c r="M43" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>125937.93024383998</v>
       </c>
       <c r="N43" s="18"/>
@@ -2775,15 +2775,15 @@
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1076196.8584473601</v>
       </c>
       <c r="D44" s="54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>-1024719.4553423617</v>
       </c>
       <c r="E44" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>51477.403104998404</v>
       </c>
       <c r="F44" s="3"/>
@@ -2794,15 +2794,15 @@
       </c>
       <c r="J44" s="54"/>
       <c r="K44" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1076196.8584473601</v>
       </c>
       <c r="L44" s="54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-957815.20401815046</v>
       </c>
       <c r="M44" s="54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>118381.65442920965</v>
       </c>
       <c r="N44" s="18"/>
@@ -2843,20 +2843,20 @@
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="61" t="s">
+      <c r="B47" s="65"/>
+      <c r="C47" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="63"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="60"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
@@ -2864,16 +2864,16 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="69"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="63"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -2902,12 +2902,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C47:J48"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A2:H2"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="A3:E3"/>
@@ -2916,6 +2910,12 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="I33:O33"/>
+    <mergeCell ref="C47:J48"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/Stevens_Spring_2022/E-355-D/Labs/Lab6_355A_Alex_Gaskins.xlsx
+++ b/Stevens_Spring_2022/E-355-D/Labs/Lab6_355A_Alex_Gaskins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/E-355-D/Labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24F7239-CD20-3841-BFFA-70918337F1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7B607A-2066-5447-A3E7-901C43202753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,6 +669,15 @@
     <xf numFmtId="44" fontId="9" fillId="2" borderId="7" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,17 +711,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1200,8 +1200,8 @@
   </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:J48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="150" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1235,44 +1235,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1817,13 +1817,13 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="15"/>
@@ -1836,11 +1836,11 @@
       <c r="O18" s="15"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1966,7 +1966,7 @@
       <c r="D23" s="42"/>
       <c r="E23" s="47"/>
       <c r="F23" s="49">
-        <v>-405000</v>
+        <v>-425000</v>
       </c>
       <c r="G23" s="52"/>
       <c r="H23" s="50"/>
@@ -2379,25 +2379,25 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="71" t="s">
+      <c r="I33" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2421,10 +2421,10 @@
       <c r="B35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="58" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="30" t="s">
@@ -2437,10 +2437,10 @@
       <c r="J35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="69" t="s">
+      <c r="K35" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="69" t="s">
+      <c r="L35" s="58" t="s">
         <v>41</v>
       </c>
       <c r="M35" s="30" t="s">
@@ -2454,8 +2454,8 @@
       <c r="B36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="32" t="s">
         <v>42</v>
       </c>
@@ -2466,8 +2466,8 @@
       <c r="J36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
       <c r="M36" s="32" t="s">
         <v>42</v>
       </c>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="J37" s="56">
         <f>F23</f>
-        <v>-405000</v>
+        <v>-425000</v>
       </c>
       <c r="K37" s="54"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54">
         <f>J37</f>
-        <v>-405000</v>
+        <v>-425000</v>
       </c>
       <c r="N37" s="18"/>
       <c r="O37" s="19"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="O40" s="57">
         <f>NPV(O39,M38:M44)+J37</f>
-        <v>38301.371535839397</v>
+        <v>18301.371535839397</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="O41" s="22">
         <f>IRR(M37:M44)</f>
-        <v>0.19036984982924188</v>
+        <v>0.17396550474245354</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2843,20 +2843,20 @@
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="58" t="s">
+      <c r="B47" s="68"/>
+      <c r="C47" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="60"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="63"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
@@ -2864,16 +2864,16 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="66"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="63"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="66"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -2902,6 +2902,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C47:J48"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="A3:E3"/>
@@ -2910,12 +2916,6 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="I33:O33"/>
-    <mergeCell ref="C47:J48"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
